--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T08:18:14+00:00</t>
+    <t>2024-11-20T17:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T17:30:28+00:00</t>
+    <t>2024-11-21T14:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-21T14:14:51+00:00</t>
+    <t>2024-11-21T15:32:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-21T15:32:26+00:00</t>
+    <t>2024-11-21T15:50:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-21T15:50:13+00:00</t>
+    <t>2024-11-21T16:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-21T16:14:25+00:00</t>
+    <t>2024-11-21T17:02:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-21T17:02:54+00:00</t>
+    <t>2024-11-26T17:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T17:16:10+00:00</t>
+    <t>2024-11-27T09:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T09:23:20+00:00</t>
+    <t>2024-11-27T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T09:36:47+00:00</t>
+    <t>2024-11-27T09:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T09:56:31+00:00</t>
+    <t>2024-11-27T10:38:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T10:38:19+00:00</t>
+    <t>2024-11-27T12:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T12:32:23+00:00</t>
+    <t>2024-11-27T17:43:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T17:43:29+00:00</t>
+    <t>2024-11-29T09:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-29T09:26:06+00:00</t>
+    <t>2024-11-29T11:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-29T11:08:15+00:00</t>
+    <t>2024-12-02T13:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T13:27:25+00:00</t>
+    <t>2024-12-02T13:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T13:42:24+00:00</t>
+    <t>2024-12-02T14:07:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:07:21+00:00</t>
+    <t>2024-12-02T14:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:26:03+00:00</t>
+    <t>2024-12-02T14:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:46:37+00:00</t>
+    <t>2024-12-02T15:01:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:01:51+00:00</t>
+    <t>2024-12-02T15:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/add-narrative-comptes-regulateur/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:30:06+00:00</t>
+    <t>2024-12-02T15:58:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
